--- a/FIAT.Web/src/FIAT.Web/wwwroot/Template/计划任务模板.xlsx
+++ b/FIAT.Web/src/FIAT.Web/wwwroot/Template/计划任务模板.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="1" r:id="rId1"/>
     <sheet name="TaskOfPlans" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,10 +104,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,14 +215,22 @@
   </si>
   <si>
     <t>DisId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigAreaUserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大区总监账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,7 +289,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -294,7 +302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -368,7 +376,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -403,7 +410,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -579,68 +585,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="35.125" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="34.875" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:7">
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:7">
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -651,38 +664,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
